--- a/outcome/appendix/data/Epidemic/AIDS.xlsx
+++ b/outcome/appendix/data/Epidemic/AIDS.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3925.47328166946</v>
+        <v>3498.74675833293</v>
       </c>
       <c r="C2" t="n">
-        <v>3242.0763208531</v>
+        <v>2873.09001755036</v>
       </c>
       <c r="D2" t="n">
-        <v>2813.95205001959</v>
+        <v>2541.88734542476</v>
       </c>
       <c r="E2" t="n">
-        <v>4667.36640151059</v>
+        <v>4124.4034991155</v>
       </c>
       <c r="F2" t="n">
-        <v>5045.67573786487</v>
+        <v>4455.60617124109</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2759</v>
       </c>
       <c r="I2" t="n">
-        <v>1166.47328166946</v>
+        <v>739.746758332928</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3754.65161691573</v>
+        <v>3533.93558964181</v>
       </c>
       <c r="C3" t="n">
-        <v>2908.97875124722</v>
+        <v>2788.36949852261</v>
       </c>
       <c r="D3" t="n">
-        <v>2464.84357192462</v>
+        <v>2393.69065063543</v>
       </c>
       <c r="E3" t="n">
-        <v>4498.40869424402</v>
+        <v>4279.50168076101</v>
       </c>
       <c r="F3" t="n">
-        <v>4951.64549465553</v>
+        <v>4674.18052864819</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>2133</v>
       </c>
       <c r="I3" t="n">
-        <v>1621.65161691573</v>
+        <v>1400.93558964181</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6150.90007053308</v>
+        <v>5947.70578519683</v>
       </c>
       <c r="C4" t="n">
-        <v>5159.07074935802</v>
+        <v>5188.88723370771</v>
       </c>
       <c r="D4" t="n">
-        <v>4795.04522189473</v>
+        <v>4787.19295707079</v>
       </c>
       <c r="E4" t="n">
-        <v>7069.89128345394</v>
+        <v>6706.52433668594</v>
       </c>
       <c r="F4" t="n">
-        <v>7597.21874002134</v>
+        <v>7108.21861332286</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4808</v>
       </c>
       <c r="I4" t="n">
-        <v>1342.90007053308</v>
+        <v>1139.70578519683</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>6035.45869918219</v>
+        <v>5768.78144496191</v>
       </c>
       <c r="C5" t="n">
-        <v>5051.9562550978</v>
+        <v>4979.14143388525</v>
       </c>
       <c r="D5" t="n">
-        <v>4468.15547033811</v>
+        <v>4561.13126211159</v>
       </c>
       <c r="E5" t="n">
-        <v>7028.58015943531</v>
+        <v>6558.42145603857</v>
       </c>
       <c r="F5" t="n">
-        <v>7629.94217745792</v>
+        <v>6976.43162781223</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>5960</v>
       </c>
       <c r="I5" t="n">
-        <v>75.4586991821889</v>
+        <v>-191.21855503809</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6118.36587545536</v>
+        <v>6334.3621070258</v>
       </c>
       <c r="C6" t="n">
-        <v>5153.86303068988</v>
+        <v>5506.84366556563</v>
       </c>
       <c r="D6" t="n">
-        <v>4676.93594106607</v>
+        <v>5068.78186397455</v>
       </c>
       <c r="E6" t="n">
-        <v>7164.0049337944</v>
+        <v>7161.88054848597</v>
       </c>
       <c r="F6" t="n">
-        <v>7772.37513273691</v>
+        <v>7599.94235007706</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5484</v>
       </c>
       <c r="I6" t="n">
-        <v>634.365875455361</v>
+        <v>850.362107025801</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6379.44822365562</v>
+        <v>6673.91435976775</v>
       </c>
       <c r="C7" t="n">
-        <v>5200.83519740302</v>
+        <v>5830.22734128792</v>
       </c>
       <c r="D7" t="n">
-        <v>4607.28859928383</v>
+        <v>5383.60641204054</v>
       </c>
       <c r="E7" t="n">
-        <v>7563.85777882173</v>
+        <v>7517.60137824758</v>
       </c>
       <c r="F7" t="n">
-        <v>8038.42676621858</v>
+        <v>7964.22230749496</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6915</v>
       </c>
       <c r="I7" t="n">
-        <v>-535.55177634438</v>
+        <v>-241.085640232251</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6290.54596129594</v>
+        <v>6612.57675288695</v>
       </c>
       <c r="C8" t="n">
-        <v>5070.45348363994</v>
+        <v>5758.89043338418</v>
       </c>
       <c r="D8" t="n">
-        <v>4438.35799136724</v>
+        <v>5306.97619392002</v>
       </c>
       <c r="E8" t="n">
-        <v>7528.28194587862</v>
+        <v>7466.26307238972</v>
       </c>
       <c r="F8" t="n">
-        <v>8085.9572309318</v>
+        <v>7918.17731185389</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>5166</v>
       </c>
       <c r="I8" t="n">
-        <v>1124.54596129594</v>
+        <v>1446.57675288695</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5995.72794690586</v>
+        <v>6545.31937493872</v>
       </c>
       <c r="C9" t="n">
-        <v>4764.4753249354</v>
+        <v>5681.19875132534</v>
       </c>
       <c r="D9" t="n">
-        <v>4204.06898950806</v>
+        <v>5223.76092491974</v>
       </c>
       <c r="E9" t="n">
-        <v>7209.85867625149</v>
+        <v>7409.43999855211</v>
       </c>
       <c r="F9" t="n">
-        <v>8024.47893587893</v>
+        <v>7866.87782495771</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +672,10 @@
         <v>6124</v>
       </c>
       <c r="I9" t="n">
-        <v>-128.272053094143</v>
+        <v>421.319374938723</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6062.85922909841</v>
+        <v>6773.15117609828</v>
       </c>
       <c r="C10" t="n">
-        <v>4761.27456114543</v>
+        <v>5901.3446319459</v>
       </c>
       <c r="D10" t="n">
-        <v>4196.81736654569</v>
+        <v>5439.83812497742</v>
       </c>
       <c r="E10" t="n">
-        <v>7480.83237443795</v>
+        <v>7644.95772025066</v>
       </c>
       <c r="F10" t="n">
-        <v>7979.53774951556</v>
+        <v>8106.46422721914</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6927</v>
       </c>
       <c r="I10" t="n">
-        <v>-864.14077090159</v>
+        <v>-153.848823901721</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>5856.46523469876</v>
+        <v>6519.96211347315</v>
       </c>
       <c r="C11" t="n">
-        <v>4564.97133625357</v>
+        <v>5643.34764655362</v>
       </c>
       <c r="D11" t="n">
-        <v>3671.49934406987</v>
+        <v>5179.29597901376</v>
       </c>
       <c r="E11" t="n">
-        <v>7203.01366215805</v>
+        <v>7396.57658039267</v>
       </c>
       <c r="F11" t="n">
-        <v>8284.20702576692</v>
+        <v>7860.62824793253</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4546</v>
       </c>
       <c r="I11" t="n">
-        <v>1310.46523469876</v>
+        <v>1973.96211347315</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7393.35344811294</v>
+        <v>7959.21326768109</v>
       </c>
       <c r="C12" t="n">
-        <v>5930.63307216569</v>
+        <v>7078.86435877881</v>
       </c>
       <c r="D12" t="n">
-        <v>5278.65282938378</v>
+        <v>6612.83579706845</v>
       </c>
       <c r="E12" t="n">
-        <v>8866.64272692375</v>
+        <v>8839.56217658337</v>
       </c>
       <c r="F12" t="n">
-        <v>9672.76238760991</v>
+        <v>9305.59073829373</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>5824</v>
       </c>
       <c r="I12" t="n">
-        <v>1569.35344811294</v>
+        <v>2135.21326768109</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7191.53585923111</v>
+        <v>7722.68499381226</v>
       </c>
       <c r="C13" t="n">
-        <v>5858.19908927076</v>
+        <v>6839.34222768171</v>
       </c>
       <c r="D13" t="n">
-        <v>5032.55617382826</v>
+        <v>6371.72881368842</v>
       </c>
       <c r="E13" t="n">
-        <v>8610.84366672779</v>
+        <v>8606.02775994281</v>
       </c>
       <c r="F13" t="n">
-        <v>9490.90582848461</v>
+        <v>9073.6411739361</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>6508</v>
       </c>
       <c r="I13" t="n">
-        <v>683.53585923111</v>
+        <v>1214.68499381226</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4202.03227886973</v>
+        <v>4102.65193634981</v>
       </c>
       <c r="C14" t="n">
-        <v>2584.71413694862</v>
+        <v>3120.34556996977</v>
       </c>
       <c r="D14" t="n">
-        <v>1832.36451261442</v>
+        <v>2600.34399053483</v>
       </c>
       <c r="E14" t="n">
-        <v>5863.9624279995</v>
+        <v>5084.95830272985</v>
       </c>
       <c r="F14" t="n">
-        <v>6862.04472629318</v>
+        <v>5604.95988216479</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3260</v>
       </c>
       <c r="I14" t="n">
-        <v>942.032278869727</v>
+        <v>842.65193634981</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4067.19814063057</v>
+        <v>4093.85454634278</v>
       </c>
       <c r="C15" t="n">
-        <v>2500.9424939658</v>
+        <v>3069.3518584519</v>
       </c>
       <c r="D15" t="n">
-        <v>1649.47260155679</v>
+        <v>2527.0128957087</v>
       </c>
       <c r="E15" t="n">
-        <v>5691.57780297269</v>
+        <v>5118.35723423365</v>
       </c>
       <c r="F15" t="n">
-        <v>6563.33180561797</v>
+        <v>5660.69619697685</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3051</v>
       </c>
       <c r="I15" t="n">
-        <v>1016.19814063057</v>
+        <v>1042.85454634278</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6555.09598023649</v>
+        <v>6554.41515114469</v>
       </c>
       <c r="C16" t="n">
-        <v>4937.22412413517</v>
+        <v>5521.82526671066</v>
       </c>
       <c r="D16" t="n">
-        <v>4375.6330919949</v>
+        <v>4975.20520071945</v>
       </c>
       <c r="E16" t="n">
-        <v>8225.52721101706</v>
+        <v>7587.00503557872</v>
       </c>
       <c r="F16" t="n">
-        <v>9426.90179689001</v>
+        <v>8133.62510156993</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>5951</v>
       </c>
       <c r="I16" t="n">
-        <v>604.095980236491</v>
+        <v>603.415151144692</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>6429.80607225034</v>
+        <v>6538.40980377482</v>
       </c>
       <c r="C17" t="n">
-        <v>4783.31591190952</v>
+        <v>5492.186637848</v>
       </c>
       <c r="D17" t="n">
-        <v>3912.08723560696</v>
+        <v>4938.34954858201</v>
       </c>
       <c r="E17" t="n">
-        <v>8173.18000903823</v>
+        <v>7584.63296970164</v>
       </c>
       <c r="F17" t="n">
-        <v>8964.95488848645</v>
+        <v>8138.47005896762</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>5283</v>
       </c>
       <c r="I17" t="n">
-        <v>1146.80607225034</v>
+        <v>1255.40980377482</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6511.87735943237</v>
+        <v>6885.61537999706</v>
       </c>
       <c r="C18" t="n">
-        <v>4613.50453184245</v>
+        <v>5824.06491405562</v>
       </c>
       <c r="D18" t="n">
-        <v>3892.79208429744</v>
+        <v>5262.11404227854</v>
       </c>
       <c r="E18" t="n">
-        <v>8445.5906064847</v>
+        <v>7947.1658459385</v>
       </c>
       <c r="F18" t="n">
-        <v>9269.86272254119</v>
+        <v>8509.11671771559</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5047</v>
       </c>
       <c r="I18" t="n">
-        <v>1464.87735943237</v>
+        <v>1838.61537999706</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6687.18575741031</v>
+        <v>7237.23784995371</v>
       </c>
       <c r="C19" t="n">
-        <v>4690.70142998515</v>
+        <v>6168.21353600821</v>
       </c>
       <c r="D19" t="n">
-        <v>4066.41957330459</v>
+        <v>5602.30624808684</v>
       </c>
       <c r="E19" t="n">
-        <v>8582.47664615992</v>
+        <v>8306.26216389921</v>
       </c>
       <c r="F19" t="n">
-        <v>9918.20663217979</v>
+        <v>8872.16945182057</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>5978</v>
       </c>
       <c r="I19" t="n">
-        <v>709.185757410312</v>
+        <v>1259.23784995371</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6688.08276274844</v>
+        <v>7318.86354936415</v>
       </c>
       <c r="C20" t="n">
-        <v>4798.4692520969</v>
+        <v>6244.96374323298</v>
       </c>
       <c r="D20" t="n">
-        <v>3962.27320075089</v>
+        <v>5676.47552565073</v>
       </c>
       <c r="E20" t="n">
-        <v>8574.90457017487</v>
+        <v>8392.76335549532</v>
       </c>
       <c r="F20" t="n">
-        <v>9553.45544643325</v>
+        <v>8961.25157307758</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3373</v>
       </c>
       <c r="I20" t="n">
-        <v>3315.08276274844</v>
+        <v>3945.86354936415</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6381.52069530299</v>
+        <v>7075.9158398568</v>
       </c>
       <c r="C21" t="n">
-        <v>4407.92544931007</v>
+        <v>5997.29274298758</v>
       </c>
       <c r="D21" t="n">
-        <v>3849.34023293847</v>
+        <v>5426.3041663239</v>
       </c>
       <c r="E21" t="n">
-        <v>8232.64370088178</v>
+        <v>8154.53893672603</v>
       </c>
       <c r="F21" t="n">
-        <v>9499.39716373938</v>
+        <v>8725.5275133897</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>4710</v>
       </c>
       <c r="I21" t="n">
-        <v>1671.52069530299</v>
+        <v>2365.9158398568</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6489.82054494529</v>
+        <v>7227.5673614996</v>
       </c>
       <c r="C22" t="n">
-        <v>4478.84084674718</v>
+        <v>6145.44266968633</v>
       </c>
       <c r="D22" t="n">
-        <v>3541.13476629563</v>
+        <v>5572.60046062876</v>
       </c>
       <c r="E22" t="n">
-        <v>8457.22524644304</v>
+        <v>8309.69205331287</v>
       </c>
       <c r="F22" t="n">
-        <v>9520.14778638367</v>
+        <v>8882.53426237044</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5039</v>
       </c>
       <c r="I22" t="n">
-        <v>1450.82054494529</v>
+        <v>2188.5673614996</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6280.26656102799</v>
+        <v>6988.93722721613</v>
       </c>
       <c r="C23" t="n">
-        <v>4282.77219392961</v>
+        <v>5904.52544268548</v>
       </c>
       <c r="D23" t="n">
-        <v>3379.97950550943</v>
+        <v>5330.47251987704</v>
       </c>
       <c r="E23" t="n">
-        <v>8363.16383139874</v>
+        <v>8073.34901174678</v>
       </c>
       <c r="F23" t="n">
-        <v>9317.28247210323</v>
+        <v>8647.40193455522</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>5357</v>
       </c>
       <c r="I23" t="n">
-        <v>923.266561027988</v>
+        <v>1631.93722721613</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>7797.20462744637</v>
+        <v>8316.5085711809</v>
       </c>
       <c r="C24" t="n">
-        <v>5576.16325055499</v>
+        <v>7230.33289296359</v>
       </c>
       <c r="D24" t="n">
-        <v>4983.97501157169</v>
+        <v>6655.34622124094</v>
       </c>
       <c r="E24" t="n">
-        <v>10042.8428903876</v>
+        <v>9402.68424939822</v>
       </c>
       <c r="F24" t="n">
-        <v>10810.7070352848</v>
+        <v>9977.67092112087</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>6493</v>
       </c>
       <c r="I24" t="n">
-        <v>1304.20462744637</v>
+        <v>1823.5085711809</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7659.07672066083</v>
+        <v>7920.78176032884</v>
       </c>
       <c r="C25" t="n">
-        <v>5522.33685661702</v>
+        <v>6833.21308664569</v>
       </c>
       <c r="D25" t="n">
-        <v>4904.08124012123</v>
+        <v>6257.48900766684</v>
       </c>
       <c r="E25" t="n">
-        <v>9928.6200776645</v>
+        <v>9008.350434012</v>
       </c>
       <c r="F25" t="n">
-        <v>10799.1856775559</v>
+        <v>9584.07451299084</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>7490</v>
       </c>
       <c r="I25" t="n">
-        <v>169.076720660828</v>
+        <v>430.781760328841</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4730.67582105556</v>
+        <v>4461.38596999111</v>
       </c>
       <c r="C26" t="n">
-        <v>2449.77514191427</v>
+        <v>3255.49581724776</v>
       </c>
       <c r="D26" t="n">
-        <v>1426.65836742726</v>
+        <v>2617.13613078617</v>
       </c>
       <c r="E26" t="n">
-        <v>6923.94208554853</v>
+        <v>5667.27612273447</v>
       </c>
       <c r="F26" t="n">
-        <v>7855.2079047365</v>
+        <v>6305.63580919606</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>3109</v>
       </c>
       <c r="I26" t="n">
-        <v>1621.67582105556</v>
+        <v>1352.38596999111</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4525.25604973695</v>
+        <v>4473.0323109896</v>
       </c>
       <c r="C27" t="n">
-        <v>2236.17949453311</v>
+        <v>3218.135061431</v>
       </c>
       <c r="D27" t="n">
-        <v>1593.77101673416</v>
+        <v>2553.83258500118</v>
       </c>
       <c r="E27" t="n">
-        <v>6797.91175674534</v>
+        <v>5727.92956054819</v>
       </c>
       <c r="F27" t="n">
-        <v>8091.68709647435</v>
+        <v>6392.23203697801</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>3364</v>
       </c>
       <c r="I27" t="n">
-        <v>1161.25604973695</v>
+        <v>1109.0323109896</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>7046.64043890527</v>
+        <v>6916.36184756171</v>
       </c>
       <c r="C28" t="n">
-        <v>4784.51210244902</v>
+        <v>5653.46539494127</v>
       </c>
       <c r="D28" t="n">
-        <v>3574.70815716421</v>
+        <v>4984.92839619872</v>
       </c>
       <c r="E28" t="n">
-        <v>9541.2731330018</v>
+        <v>8179.25830018215</v>
       </c>
       <c r="F28" t="n">
-        <v>10834.8859353224</v>
+        <v>8847.79529892471</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>5020</v>
       </c>
       <c r="I28" t="n">
-        <v>2026.64043890527</v>
+        <v>1896.36184756171</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>6901.82931960683</v>
+        <v>6835.05667645603</v>
       </c>
       <c r="C29" t="n">
-        <v>4527.67783828767</v>
+        <v>5557.07170919862</v>
       </c>
       <c r="D29" t="n">
-        <v>3324.96621034662</v>
+        <v>4880.54733328833</v>
       </c>
       <c r="E29" t="n">
-        <v>9474.40057321053</v>
+        <v>8113.04164371344</v>
       </c>
       <c r="F29" t="n">
-        <v>10474.3995009834</v>
+        <v>8789.56601962373</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3837</v>
       </c>
       <c r="I29" t="n">
-        <v>3064.82931960683</v>
+        <v>2998.05667645603</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>7033.81366392058</v>
+        <v>7273.63718587183</v>
       </c>
       <c r="C30" t="n">
-        <v>4598.64313419762</v>
+        <v>5977.93725306465</v>
       </c>
       <c r="D30" t="n">
-        <v>3219.92092266448</v>
+        <v>5292.03514085864</v>
       </c>
       <c r="E30" t="n">
-        <v>9530.84136178259</v>
+        <v>8569.33711867902</v>
       </c>
       <c r="F30" t="n">
-        <v>11296.0749773975</v>
+        <v>9255.23923088503</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>4490</v>
       </c>
       <c r="I30" t="n">
-        <v>2543.81366392058</v>
+        <v>2783.63718587183</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7179.10899451928</v>
+        <v>7621.59637591818</v>
       </c>
       <c r="C31" t="n">
-        <v>4707.71928395083</v>
+        <v>6317.58403088019</v>
       </c>
       <c r="D31" t="n">
-        <v>3914.3474508629</v>
+        <v>5627.28159344279</v>
       </c>
       <c r="E31" t="n">
-        <v>9917.50184005491</v>
+        <v>8925.60872095616</v>
       </c>
       <c r="F31" t="n">
-        <v>11351.7259195168</v>
+        <v>9615.91115839356</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>5626</v>
       </c>
       <c r="I31" t="n">
-        <v>1553.10899451928</v>
+        <v>1995.59637591818</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7195.96486797504</v>
+        <v>7645.51507103714</v>
       </c>
       <c r="C32" t="n">
-        <v>4802.72861433826</v>
+        <v>6336.1596732497</v>
       </c>
       <c r="D32" t="n">
-        <v>3718.43226749482</v>
+        <v>5643.02879453999</v>
       </c>
       <c r="E32" t="n">
-        <v>9747.4777316914</v>
+        <v>8954.87046882458</v>
       </c>
       <c r="F32" t="n">
-        <v>11498.3143428686</v>
+        <v>9648.00134753429</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4667</v>
       </c>
       <c r="I32" t="n">
-        <v>2528.96486797504</v>
+        <v>2978.51507103714</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6810.0384546049</v>
+        <v>7475.84065594796</v>
       </c>
       <c r="C33" t="n">
-        <v>4371.40195081359</v>
+        <v>6161.15772723823</v>
       </c>
       <c r="D33" t="n">
-        <v>3221.55570964585</v>
+        <v>5465.20662401518</v>
       </c>
       <c r="E33" t="n">
-        <v>9357.42306056197</v>
+        <v>8790.5235846577</v>
       </c>
       <c r="F33" t="n">
-        <v>10987.9529877826</v>
+        <v>9486.47468788075</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4679</v>
       </c>
       <c r="I33" t="n">
-        <v>2131.0384546049</v>
+        <v>2796.84065594796</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6992.34756390439</v>
+        <v>7659.68241027529</v>
       </c>
       <c r="C34" t="n">
-        <v>4272.25409083303</v>
+        <v>6341.04798426693</v>
       </c>
       <c r="D34" t="n">
-        <v>3007.63329855356</v>
+        <v>5643.00508472987</v>
       </c>
       <c r="E34" t="n">
-        <v>9678.30326462299</v>
+        <v>8978.31683628365</v>
       </c>
       <c r="F34" t="n">
-        <v>11133.6414034936</v>
+        <v>9676.35973582071</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>4389</v>
       </c>
       <c r="I34" t="n">
-        <v>2603.34756390439</v>
+        <v>3270.68241027529</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6737.61086346762</v>
+        <v>7415.78673650415</v>
       </c>
       <c r="C35" t="n">
-        <v>4177.09107857774</v>
+        <v>6094.60558088017</v>
       </c>
       <c r="D35" t="n">
-        <v>3169.41570940699</v>
+        <v>5395.21452412064</v>
       </c>
       <c r="E35" t="n">
-        <v>9409.81708259876</v>
+        <v>8736.96789212812</v>
       </c>
       <c r="F35" t="n">
-        <v>11035.4343266373</v>
+        <v>9436.35894888766</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>3965</v>
       </c>
       <c r="I35" t="n">
-        <v>2772.61086346762</v>
+        <v>3450.78673650415</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>8284.75719200142</v>
+        <v>8789.94402004332</v>
       </c>
       <c r="C36" t="n">
-        <v>5623.53891376162</v>
+        <v>7466.79161447049</v>
       </c>
       <c r="D36" t="n">
-        <v>4556.35891774507</v>
+        <v>6766.35704102212</v>
       </c>
       <c r="E36" t="n">
-        <v>11087.9166711888</v>
+        <v>10113.0964256162</v>
       </c>
       <c r="F36" t="n">
-        <v>12360.0808475879</v>
+        <v>10813.5309990645</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>4299</v>
       </c>
       <c r="I36" t="n">
-        <v>3985.75719200142</v>
+        <v>4490.94402004332</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>8176.50381002703</v>
+        <v>8460.27292684196</v>
       </c>
       <c r="C37" t="n">
-        <v>5389.47807205768</v>
+        <v>7135.55404181172</v>
       </c>
       <c r="D37" t="n">
-        <v>4066.73214824695</v>
+        <v>6434.29022422946</v>
       </c>
       <c r="E37" t="n">
-        <v>10754.0682074326</v>
+        <v>9784.99181187219</v>
       </c>
       <c r="F37" t="n">
-        <v>12749.0807001736</v>
+        <v>10486.2556294545</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>5264</v>
       </c>
       <c r="I37" t="n">
-        <v>2912.50381002703</v>
+        <v>3196.27292684196</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>5221.91520010548</v>
+        <v>4935.23868216613</v>
       </c>
       <c r="C38" t="n">
-        <v>2577.66214465283</v>
+        <v>3524.45580672951</v>
       </c>
       <c r="D38" t="n">
-        <v>1066.5914985174</v>
+        <v>2777.63246466945</v>
       </c>
       <c r="E38" t="n">
-        <v>7954.0817910066</v>
+        <v>6346.02155760275</v>
       </c>
       <c r="F38" t="n">
-        <v>9785.4947724568</v>
+        <v>7092.84489966281</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1815</v>
       </c>
       <c r="I38" t="n">
-        <v>3406.91520010548</v>
+        <v>3120.23868216613</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>5046.0556917035</v>
+        <v>4938.87602946749</v>
       </c>
       <c r="C39" t="n">
-        <v>2220.78682026253</v>
+        <v>3490.98649359703</v>
       </c>
       <c r="D39" t="n">
-        <v>1087.03428214932</v>
+        <v>2724.52007205225</v>
       </c>
       <c r="E39" t="n">
-        <v>7664.00585927871</v>
+        <v>6386.76556533795</v>
       </c>
       <c r="F39" t="n">
-        <v>10263.0377870692</v>
+        <v>7153.23198688274</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>4516</v>
       </c>
       <c r="I39" t="n">
-        <v>530.055691703503</v>
+        <v>422.876029467492</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>7529.29892425451</v>
+        <v>7389.64565785687</v>
       </c>
       <c r="C40" t="n">
-        <v>4743.35710047891</v>
+        <v>5935.19845641978</v>
       </c>
       <c r="D40" t="n">
-        <v>2811.25382669002</v>
+        <v>5165.26061641661</v>
       </c>
       <c r="E40" t="n">
-        <v>10588.8259714269</v>
+        <v>8844.09285929395</v>
       </c>
       <c r="F40" t="n">
-        <v>12035.8448705006</v>
+        <v>9614.03069929712</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>5785</v>
       </c>
       <c r="I40" t="n">
-        <v>1744.29892425451</v>
+        <v>1604.64565785687</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
